--- a/other/data_prostor.xlsx
+++ b/other/data_prostor.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="680" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="3520" yWindow="300" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="360" sheetId="1" r:id="rId1"/>
-    <sheet name="409" sheetId="4" r:id="rId2"/>
-    <sheet name="120" sheetId="3" r:id="rId3"/>
+    <sheet name="tyčinka" sheetId="1" r:id="rId1"/>
+    <sheet name="koláč" sheetId="4" r:id="rId2"/>
+    <sheet name="kolečko" sheetId="3" r:id="rId3"/>
     <sheet name="298!" sheetId="5" r:id="rId4"/>
     <sheet name="366!" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_120_1" localSheetId="2">'120'!$A$1:$D$35</definedName>
+    <definedName name="_120_1" localSheetId="2">kolečko!$A$1:$D$35</definedName>
     <definedName name="_298" localSheetId="3">'298!'!$A$1:$D$35</definedName>
-    <definedName name="_360" localSheetId="0">'360'!$B$2:$E$36</definedName>
+    <definedName name="_360" localSheetId="0">tyčinka!$B$2:$E$36</definedName>
     <definedName name="_366" localSheetId="4">'366!'!$A$14:$D$48</definedName>
-    <definedName name="_409" localSheetId="1">'409'!$A$1:$D$34</definedName>
+    <definedName name="_409" localSheetId="1">koláč!$A$1:$D$34</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="120.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:palas:Developement:Projects:Surmon:Pattern:reports:120.txt" decimal="," thousands=" " semicolon="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:palas:Developement:Projects:Surmon:Pattern:reports:120.txt" decimal="," thousands=" " semicolon="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -42,7 +42,7 @@
     </textPr>
   </connection>
   <connection id="2" name="298.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:palas:Developement:Projects:Surmon:Pattern:reports:298.txt" decimal="," thousands=" " semicolon="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:palas:Developement:Projects:Surmon:Pattern:reports:298.txt" decimal="," thousands=" " semicolon="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -52,7 +52,7 @@
     </textPr>
   </connection>
   <connection id="3" name="360.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:palas:Developement:Projects:Surmon:Pattern:reports:360.txt" decimal="," thousands=" " semicolon="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:palas:Developement:Projects:Surmon:Pattern:reports:360.txt" decimal="," thousands=" " semicolon="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -62,7 +62,7 @@
     </textPr>
   </connection>
   <connection id="4" name="366.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:palas:Developement:Projects:Surmon:Pattern:reports:366.txt" decimal="," thousands=" " semicolon="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:palas:Developement:Projects:Surmon:Pattern:reports:366.txt" decimal="," thousands=" " semicolon="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -72,7 +72,7 @@
     </textPr>
   </connection>
   <connection id="5" name="409.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:palas:Developement:Projects:Surmon:Pattern:reports:409.txt" decimal="," thousands=" " semicolon="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:palas:Developement:Projects:Surmon:Pattern:reports:409.txt" decimal="," thousands=" " semicolon="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Klasifikováno</t>
   </si>
@@ -125,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,12 +174,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -190,12 +184,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -216,12 +218,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -252,6 +261,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Tyčinka</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -259,96 +271,96 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'360'!$F$2:$F$14</c:f>
+              <c:f>tyčinka!$I$2:$I$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>13.0</c:v>
+                  <c:v>0.0280172413793103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.0</c:v>
+                  <c:v>0.120689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172.0</c:v>
+                  <c:v>0.370689655172414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>274.0</c:v>
+                  <c:v>0.59051724137931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.0</c:v>
+                  <c:v>0.189655172413793</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>208.5</c:v>
+                  <c:v>0.449353448275862</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>221.5</c:v>
+                  <c:v>0.477370689655172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.0</c:v>
+                  <c:v>0.0387931034482759</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>329.5</c:v>
+                  <c:v>0.710129310344828</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>129.5</c:v>
+                  <c:v>0.279094827586207</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>157.0</c:v>
+                  <c:v>0.338362068965517</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>129.5</c:v>
+                  <c:v>0.279094827586207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'360'!$G$2:$G$14</c:f>
+              <c:f>tyčinka!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.3937480579726</c:v>
+                  <c:v>0.0480958672879793</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.28815873981629</c:v>
+                  <c:v>0.147977041101676</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.313310857035868</c:v>
+                  <c:v>0.0108118230649233</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.99841940670038</c:v>
+                  <c:v>0.0689620437643497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.82711673178771</c:v>
+                  <c:v>0.09755897442288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1132981017865</c:v>
+                  <c:v>0.107434605181983</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.23456255599291</c:v>
+                  <c:v>0.0771109409085438</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.274363610401896</c:v>
+                  <c:v>0.00946782004039921</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.83066671907197</c:v>
+                  <c:v>0.06317318475556</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.302703318691792</c:v>
+                  <c:v>0.0104457750166189</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.64076594257585</c:v>
+                  <c:v>0.125636620333978</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.27224419476512</c:v>
+                  <c:v>0.0439029762942481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -358,6 +370,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Koláč</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -365,78 +380,78 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'360'!$F$15:$F$24</c:f>
+              <c:f>tyčinka!$I$15:$I$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>311.0</c:v>
+                  <c:v>0.670258620689655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>182.0</c:v>
+                  <c:v>0.392241379310345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223.5</c:v>
+                  <c:v>0.481681034482759</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>175.5</c:v>
+                  <c:v>0.37823275862069</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>168.0</c:v>
+                  <c:v>0.362068965517241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>219.0</c:v>
+                  <c:v>0.47198275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>151.0</c:v>
+                  <c:v>0.325431034482759</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>184.0</c:v>
+                  <c:v>0.396551724137931</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>166.0</c:v>
+                  <c:v>0.357758620689655</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>261.5</c:v>
+                  <c:v>0.563577586206897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'360'!$G$15:$G$24</c:f>
+              <c:f>tyčinka!$J$15:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20.4438173358506</c:v>
+                  <c:v>0.705481252382912</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.51817853664884</c:v>
+                  <c:v>0.190422925471984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.6522462620208</c:v>
+                  <c:v>0.574640604292521</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.5274467000508</c:v>
+                  <c:v>0.915416921068579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.144856158549</c:v>
+                  <c:v>0.867706080635614</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.3643998987236</c:v>
+                  <c:v>0.737248985810985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.9785409134506</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.59095729422</c:v>
+                  <c:v>0.503509039250748</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.1361863982676</c:v>
+                  <c:v>0.591340552633335</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.0106327257636</c:v>
+                  <c:v>0.656024496973196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,6 +461,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Kolečko</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -453,90 +471,90 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'360'!$G$25:$G$36</c:f>
+              <c:f>tyčinka!$I$25:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>17.0474079079992</c:v>
+                  <c:v>0.923491379310345</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.9895927312595</c:v>
+                  <c:v>0.947198275862069</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.5920725940497</c:v>
+                  <c:v>0.953663793103448</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.2578871337922</c:v>
+                  <c:v>0.920258620689655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.1910217410397</c:v>
+                  <c:v>0.977370689655172</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.9908018458643</c:v>
+                  <c:v>0.922413793103448</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.0855234125969</c:v>
+                  <c:v>0.928879310344828</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.42984566343654</c:v>
+                  <c:v>0.952586206896552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.3556589388984</c:v>
+                  <c:v>0.967672413793103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.5979713359539</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.4698771630659</c:v>
+                  <c:v>0.924568965517241</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.3775995114812</c:v>
+                  <c:v>0.90625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'360'!$G$25:$G$36</c:f>
+              <c:f>tyčinka!$J$25:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>17.0474079079992</c:v>
+                  <c:v>0.588276958419481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.9895927312595</c:v>
+                  <c:v>0.55177356165085</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.5920725940497</c:v>
+                  <c:v>0.883138756726394</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.2578871337922</c:v>
+                  <c:v>0.76808170571007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.1910217410397</c:v>
+                  <c:v>0.627741120416322</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.9908018458643</c:v>
+                  <c:v>0.896898222843252</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.0855234125969</c:v>
+                  <c:v>0.486067378432397</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.42984566343654</c:v>
+                  <c:v>0.187374708742366</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.3556589388984</c:v>
+                  <c:v>0.529897588176048</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.5979713359539</c:v>
+                  <c:v>0.57276766920483</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.4698771630659</c:v>
+                  <c:v>0.84441370723769</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.3775995114812</c:v>
+                  <c:v>0.84122936293753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,28 +569,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2116760088"/>
-        <c:axId val="-2115340008"/>
+        <c:axId val="-2097968104"/>
+        <c:axId val="-2135916744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2116760088"/>
+        <c:axId val="-2097968104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115340008"/>
+        <c:crossAx val="-2135916744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2115340008"/>
+        <c:axId val="-2135916744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -581,9 +602,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116760088"/>
+        <c:crossAx val="-2097968104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -626,6 +648,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Tyčinka</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -633,96 +658,96 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'409'!$E$1:$E$13</c:f>
+              <c:f>koláč!$G$1:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>138.5</c:v>
+                  <c:v>0.323529411764706</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.0</c:v>
+                  <c:v>0.223529411764706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>0.0447058823529412</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>426.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>240.0</c:v>
+                  <c:v>0.562352941176471</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.5</c:v>
+                  <c:v>0.130588235294118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.5</c:v>
+                  <c:v>0.161176470588235</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>170.0</c:v>
+                  <c:v>0.397647058823529</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>177.5</c:v>
+                  <c:v>0.415294117647059</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.5</c:v>
+                  <c:v>0.0505882352941176</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>152.0</c:v>
+                  <c:v>0.355294117647059</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0</c:v>
+                  <c:v>0.00941176470588235</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.5</c:v>
+                  <c:v>0.0505882352941176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'409'!$F$1:$F$13</c:f>
+              <c:f>koláč!$H$1:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>6.89170693623983</c:v>
+                  <c:v>0.867303922203033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9370721784673</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.50148881572441</c:v>
+                  <c:v>0.817770599316415</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.66656843546384</c:v>
+                  <c:v>0.711787871693621</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.36727041759536</c:v>
+                  <c:v>0.67379572171652</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.26391118835868</c:v>
+                  <c:v>0.660675556849932</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5812813537069</c:v>
+                  <c:v>0.700961740520768</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.28924026859956</c:v>
+                  <c:v>0.790828293810294</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.04950748087537</c:v>
+                  <c:v>0.887334732968027</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.27900490490119</c:v>
+                  <c:v>0.789529042062929</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.38833131460948</c:v>
+                  <c:v>0.803406666056818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.70325534917323</c:v>
+                  <c:v>0.970319870111489</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.84782376644979</c:v>
+                  <c:v>0.861733501189198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,6 +757,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Koláč</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -739,72 +767,72 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'409'!$E$14:$E$22</c:f>
+              <c:f>koláč!$G$14:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>159.0</c:v>
+                  <c:v>0.371764705882353</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.0</c:v>
+                  <c:v>0.068235294117647</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.5</c:v>
+                  <c:v>0.165882352941176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>0.0352941176470588</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.0</c:v>
+                  <c:v>0.155294117647059</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>0.0729411764705882</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.0</c:v>
+                  <c:v>0.0305882352941176</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109.5</c:v>
+                  <c:v>0.255294117647059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'409'!$F$14:$F$22</c:f>
+              <c:f>koláč!$H$14:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.995298173564078</c:v>
+                  <c:v>0.118828380556426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0591811391636429</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.374091678014296</c:v>
+                  <c:v>0.039973964767922</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.69315764403856</c:v>
+                  <c:v>0.334350461530087</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.32778209502855</c:v>
+                  <c:v>0.161033067039861</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.077757561932239</c:v>
+                  <c:v>0.510108149848669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.11856095966901</c:v>
+                  <c:v>0.13447505369394</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.199308534445679</c:v>
+                  <c:v>0.0177874249063519</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.552001558022698</c:v>
+                  <c:v>0.0625574048181576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -814,6 +842,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Kolečko</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -821,90 +852,90 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'409'!$E$23:$E$34</c:f>
+              <c:f>koláč!$G$23:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>276.5</c:v>
+                  <c:v>0.648235294117647</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>287.5</c:v>
+                  <c:v>0.674117647058823</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>290.5</c:v>
+                  <c:v>0.681176470588235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275.0</c:v>
+                  <c:v>0.644705882352941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>301.5</c:v>
+                  <c:v>0.707058823529412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>276.0</c:v>
+                  <c:v>0.647058823529412</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>279.0</c:v>
+                  <c:v>0.654117647058823</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>290.0</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>297.0</c:v>
+                  <c:v>0.696470588235294</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>312.0</c:v>
+                  <c:v>0.731764705882353</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>277.0</c:v>
+                  <c:v>0.649411764705882</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>268.5</c:v>
+                  <c:v>0.629411764705882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'409'!$F$23:$F$34</c:f>
+              <c:f>koláč!$H$23:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.231372383769532</c:v>
+                  <c:v>0.0218575306191477</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.46124402573197</c:v>
+                  <c:v>0.177974394361801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.85467740360752</c:v>
+                  <c:v>0.354853380238041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6504800817979</c:v>
+                  <c:v>0.201995551181794</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.364158449553689</c:v>
+                  <c:v>0.0387130653202083</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.99868519888032</c:v>
+                  <c:v>0.373133373519787</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.22723472380435</c:v>
+                  <c:v>0.275207358647645</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.284224694059329</c:v>
+                  <c:v>0.0285664721399318</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.842376061293838</c:v>
+                  <c:v>0.0994168259274913</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.393693983102053</c:v>
+                  <c:v>0.0424622328830761</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.44937759391028</c:v>
+                  <c:v>0.303405625036153</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4160499634513</c:v>
+                  <c:v>0.299175098072439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -919,13 +950,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2114904840"/>
-        <c:axId val="-2114906264"/>
+        <c:axId val="-2097925752"/>
+        <c:axId val="-2097922760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2114904840"/>
+        <c:axId val="-2097925752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -933,14 +965,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114906264"/>
+        <c:crossAx val="-2097922760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2114906264"/>
+        <c:axId val="-2097922760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -949,9 +982,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114904840"/>
+        <c:crossAx val="-2097925752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -994,6 +1028,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Tyčinka</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -1001,96 +1038,96 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'120'!$E$1:$E$13</c:f>
+              <c:f>kolečko!$G$1:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>396.0</c:v>
+                  <c:v>0.572490706319703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>353.5</c:v>
+                  <c:v>0.509293680297398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>237.5</c:v>
+                  <c:v>0.336802973977695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>683.5</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>497.5</c:v>
+                  <c:v>0.723420074349442</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>201.0</c:v>
+                  <c:v>0.282527881040892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>188.0</c:v>
+                  <c:v>0.263197026022305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>427.5</c:v>
+                  <c:v>0.619330855018587</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.0</c:v>
+                  <c:v>0.102602230483271</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>280.0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>409.5</c:v>
+                  <c:v>0.592565055762082</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>252.5</c:v>
+                  <c:v>0.35910780669145</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>280.0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'120'!$F$1:$F$13</c:f>
+              <c:f>kolečko!$H$1:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>7.17752628919756</c:v>
+                  <c:v>0.8829688872014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.12676622695437</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.823190206968181</c:v>
+                  <c:v>0.839283045130747</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.06504392682049</c:v>
+                  <c:v>0.745811732662081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.79326749847202</c:v>
+                  <c:v>0.712304611251647</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6994125429369</c:v>
+                  <c:v>0.700733300931629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.98759931616373</c:v>
+                  <c:v>0.736263642021443</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.63045871990203</c:v>
+                  <c:v>0.815521317978829</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.32081647440464</c:v>
+                  <c:v>0.900635031619565</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.62116453677111</c:v>
+                  <c:v>0.81437544479008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.720437967869261</c:v>
+                  <c:v>0.826614795085651</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.91444974318391</c:v>
+                  <c:v>0.973823652616364</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.13767834354431</c:v>
+                  <c:v>0.87805606249076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,6 +1137,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Koláč</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -1107,78 +1147,78 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'120'!$E$14:$E$23</c:f>
+              <c:f>kolečko!$G$14:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>98.5</c:v>
+                  <c:v>0.130111524163569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>227.5</c:v>
+                  <c:v>0.321933085501859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>186.0</c:v>
+                  <c:v>0.260223048327138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>234.0</c:v>
+                  <c:v>0.331598513011152</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>241.5</c:v>
+                  <c:v>0.34275092936803</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>190.5</c:v>
+                  <c:v>0.266914498141264</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>258.5</c:v>
+                  <c:v>0.368029739776952</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>225.5</c:v>
+                  <c:v>0.318959107806691</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>243.5</c:v>
+                  <c:v>0.345724907063197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>148.0</c:v>
+                  <c:v>0.203717472118959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'120'!$F$14:$F$23</c:f>
+              <c:f>kolečko!$H$14:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.015761255222077</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0395640465572769</c:v>
+                  <c:v>0.00293462911416713</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.25923050880782</c:v>
+                  <c:v>0.153306434642731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.97940273281657</c:v>
+                  <c:v>0.242095952898314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.52597358822734</c:v>
+                  <c:v>0.186192998064791</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.286149506841892</c:v>
+                  <c:v>0.0333359740947203</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.78325428476068</c:v>
+                  <c:v>0.341202235627226</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.93524301241278</c:v>
+                  <c:v>0.236651532563511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.10051933914191</c:v>
+                  <c:v>0.133739048083478</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.48578303844964</c:v>
+                  <c:v>0.0579486493801494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1188,6 +1228,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Kolečko</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -1195,90 +1238,90 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'120'!$E$24:$E$35</c:f>
+              <c:f>kolečko!$G$24:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>19.0</c:v>
+                  <c:v>0.0118959107806691</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.0</c:v>
+                  <c:v>0.0282527881040892</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.0</c:v>
+                  <c:v>0.0327137546468401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.5</c:v>
+                  <c:v>0.00966542750929368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.0</c:v>
+                  <c:v>0.0490706319702602</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.5</c:v>
+                  <c:v>0.0111524163568773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.5</c:v>
+                  <c:v>0.0156133828996282</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.5</c:v>
+                  <c:v>0.0319702602230483</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.5</c:v>
+                  <c:v>0.0423791821561338</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.5</c:v>
+                  <c:v>0.0646840148698885</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.5</c:v>
+                  <c:v>0.012639405204461</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'120'!$F$24:$F$35</c:f>
+              <c:f>kolečko!$H$24:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.12963479573731</c:v>
+                  <c:v>0.137328671896664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.47655184480202</c:v>
+                  <c:v>0.180099826676343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.67264099242861</c:v>
+                  <c:v>0.204275517396541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.579174188074349</c:v>
+                  <c:v>0.0694627774012993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.754579545111415</c:v>
+                  <c:v>0.0910883783777963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.80340672396372</c:v>
+                  <c:v>0.220397530882027</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.10100318920511</c:v>
+                  <c:v>0.257087986168215</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0175833522780247</c:v>
+                  <c:v>0.000224645042420501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.68445436443324</c:v>
+                  <c:v>0.205731979579193</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.27703030749038</c:v>
+                  <c:v>0.155500959087556</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.30461003962011</c:v>
+                  <c:v>0.158901244530093</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.27434701136498</c:v>
+                  <c:v>0.155170137428001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,13 +1336,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110006808"/>
-        <c:axId val="-2119466168"/>
+        <c:axId val="-2097871464"/>
+        <c:axId val="-2097868472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110006808"/>
+        <c:axId val="-2097871464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1307,14 +1351,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119466168"/>
+        <c:crossAx val="-2097868472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2119466168"/>
+        <c:axId val="-2097868472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1323,9 +1368,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110006808"/>
+        <c:crossAx val="-2097871464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1667,11 +1713,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2114197832"/>
-        <c:axId val="-2114726120"/>
+        <c:axId val="-2092941592"/>
+        <c:axId val="-2092068824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2114197832"/>
+        <c:axId val="-2092941592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,12 +1727,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114726120"/>
+        <c:crossAx val="-2092068824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2114726120"/>
+        <c:axId val="-2092068824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,14 +1743,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114197832"/>
+        <c:crossAx val="-2092941592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2041,11 +2086,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2116234520"/>
-        <c:axId val="-2116144152"/>
+        <c:axId val="-2092064872"/>
+        <c:axId val="-2092124824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2116234520"/>
+        <c:axId val="-2092064872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2055,12 +2100,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116144152"/>
+        <c:crossAx val="-2092124824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2116144152"/>
+        <c:axId val="-2092124824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2071,14 +2116,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116234520"/>
+        <c:crossAx val="-2092064872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2097,16 +2141,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2132,16 +2176,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2167,16 +2211,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2610,10 +2654,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K36"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B2:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2649,6 +2696,14 @@
         <f>C2</f>
         <v>0</v>
       </c>
+      <c r="I2">
+        <f xml:space="preserve"> ( F2 - $F$38 ) / ( $F$39 - $F$38 )</f>
+        <v>2.8017241379310345E-2</v>
+      </c>
+      <c r="J2">
+        <f xml:space="preserve"> ( G2 - $G$38 ) / ( $G$39 - $G$38 )</f>
+        <v>4.8095867287979349E-2</v>
+      </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="5">
@@ -2675,6 +2730,14 @@
         <f t="shared" ref="H3:H36" si="2">C3</f>
         <v>0</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I36" si="3" xml:space="preserve"> ( F3 - $F$38 ) / ( $F$39 - $F$38 )</f>
+        <v>0.1206896551724138</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J36" si="4" xml:space="preserve"> ( G3 - $G$38 ) / ( $G$39 - $G$38 )</f>
+        <v>0.14797704110167637</v>
+      </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="5">
@@ -2701,6 +2764,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0.37068965517241381</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>1.0811823064923277E-2</v>
+      </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="5">
@@ -2727,6 +2798,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.59051724137931039</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>6.8962043764349751E-2</v>
+      </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="5">
@@ -2753,6 +2832,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.18965517241379309</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>9.7558974422880029E-2</v>
+      </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="5">
@@ -2779,6 +2866,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.44935344827586204</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0.10743460518198279</v>
+      </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="5">
@@ -2805,6 +2900,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.47737068965517243</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>7.7110940908543854E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="5">
@@ -2831,6 +2934,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>3.8793103448275863E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>9.4678200403992083E-3</v>
+      </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="5">
@@ -2857,7 +2968,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="19"/>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0.71012931034482762</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>6.3173184755560025E-2</v>
+      </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="5">
@@ -2884,6 +3002,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.27909482758620691</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>1.0445775016618938E-2</v>
+      </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="5">
@@ -2910,6 +3036,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="5">
@@ -2936,6 +3070,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.33836206896551724</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0.12563662033397829</v>
+      </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="5">
@@ -2962,6 +3104,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0.27909482758620691</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>4.3902976294248088E-2</v>
+      </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="7">
@@ -2988,6 +3138,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0.67025862068965514</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>0.70548125238291237</v>
+      </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="7">
@@ -3014,6 +3172,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.39224137931034481</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>0.19042292547198389</v>
+      </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="7">
@@ -3040,6 +3206,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0.48168103448275862</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>0.57464060429252106</v>
+      </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="7">
@@ -3066,6 +3240,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.37823275862068967</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0.91541692106857919</v>
+      </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="7">
@@ -3092,6 +3274,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.36206896551724138</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0.86770608063561383</v>
+      </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="7">
@@ -3118,6 +3308,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0.47198275862068967</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0.73724898581098519</v>
+      </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="7">
@@ -3144,6 +3342,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0.32543103448275862</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="7">
@@ -3170,6 +3376,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0.39655172413793105</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>0.50350903925074775</v>
+      </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="7">
@@ -3196,6 +3410,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0.35775862068965519</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>0.59134055263333551</v>
+      </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="7">
@@ -3222,6 +3444,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0.56357758620689657</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>0.65602449697319565</v>
+      </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="8">
@@ -3248,6 +3478,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0.92349137931034486</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>0.5882769584194808</v>
+      </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="8">
@@ -3274,6 +3512,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>0.94719827586206895</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>0.55177356165084956</v>
+      </c>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="8">
@@ -3300,6 +3546,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>0.95366379310344829</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>0.88313875672639397</v>
+      </c>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="8">
@@ -3326,10 +3580,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J28" t="s">
-        <v>0</v>
-      </c>
-      <c r="K28" s="17"/>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>0.92025862068965514</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>0.76808170571007039</v>
+      </c>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="8">
@@ -3356,6 +3615,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>0.97737068965517238</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>0.62774112041632169</v>
+      </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="8">
@@ -3382,6 +3649,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>0.92241379310344829</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>0.8968982228432516</v>
+      </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="8">
@@ -3408,6 +3683,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>0.92887931034482762</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>0.48606737843239728</v>
+      </c>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="8">
@@ -3434,8 +3717,16 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>0.95258620689655171</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>0.18737470874236589</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="8">
         <v>262</v>
       </c>
@@ -3460,8 +3751,16 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="2:8">
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>0.96767241379310343</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>0.52989758817604793</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="8">
         <v>283</v>
       </c>
@@ -3486,8 +3785,16 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>0.5727676692048298</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" s="8">
         <v>289</v>
       </c>
@@ -3512,8 +3819,16 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>0.92456896551724133</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>0.84441370723769016</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="8">
         <v>320</v>
       </c>
@@ -3537,6 +3852,34 @@
       <c r="H36" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>0.90625</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>0.84122936293753015</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="F38" s="1">
+        <f>MIN(F2:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f>MIN(G2:G36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="F39" s="1">
+        <f>MAX(F2:F36)</f>
+        <v>464</v>
+      </c>
+      <c r="G39">
+        <f>MAX(G2:G36)</f>
+        <v>28.978540913450601</v>
       </c>
     </row>
   </sheetData>
@@ -3556,10 +3899,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3570,7 +3916,7 @@
     <col min="4" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="2">
         <v>145</v>
       </c>
@@ -3584,15 +3930,23 @@
         <v>-138.5</v>
       </c>
       <c r="E1" s="2">
-        <f>ABS(D1)</f>
+        <f t="shared" ref="E1:E34" si="0">ABS(D1)</f>
         <v>138.5</v>
       </c>
       <c r="F1" s="2">
-        <f>C1*10</f>
+        <f t="shared" ref="F1:F34" si="1">C1*10</f>
         <v>6.8917069362398298</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2">
+        <f xml:space="preserve"> ( E1 - $E$36 ) / ( $E$37 - $E$36 )</f>
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="H1" s="2">
+        <f xml:space="preserve"> ( F1 - $F$36 ) / ( $F$37 - $F$36 )</f>
+        <v>0.86730392220303265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>152</v>
       </c>
@@ -3606,15 +3960,23 @@
         <v>-96</v>
       </c>
       <c r="E2" s="2">
-        <f>ABS(D2)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="F2" s="2">
-        <f>C2*10</f>
+        <f t="shared" si="1"/>
         <v>7.9370721784673002</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G34" si="2" xml:space="preserve"> ( E2 - $E$36 ) / ( $E$37 - $E$36 )</f>
+        <v>0.22352941176470589</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" ref="H2:H34" si="3" xml:space="preserve"> ( F2 - $F$36 ) / ( $F$37 - $F$36 )</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>156</v>
       </c>
@@ -3628,15 +3990,23 @@
         <v>20</v>
       </c>
       <c r="E3" s="2">
-        <f>ABS(D3)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <f>C3*10</f>
+        <f t="shared" si="1"/>
         <v>6.50148881572441</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2">
+        <f t="shared" si="2"/>
+        <v>4.4705882352941179E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="3"/>
+        <v>0.81777059931641494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>171</v>
       </c>
@@ -3650,15 +4020,23 @@
         <v>-426</v>
       </c>
       <c r="E4" s="2">
-        <f>ABS(D4)</f>
+        <f t="shared" si="0"/>
         <v>426</v>
       </c>
       <c r="F4" s="2">
-        <f>C4*10</f>
+        <f t="shared" si="1"/>
         <v>5.6665684354638399</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7117878716936209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>184</v>
       </c>
@@ -3672,15 +4050,23 @@
         <v>-240</v>
       </c>
       <c r="E5" s="2">
-        <f>ABS(D5)</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="F5" s="2">
-        <f>C5*10</f>
+        <f t="shared" si="1"/>
         <v>5.3672704175953605</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.56235294117647061</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.67379572171652047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>195</v>
       </c>
@@ -3694,15 +4080,23 @@
         <v>56.5</v>
       </c>
       <c r="E6" s="2">
-        <f>ABS(D6)</f>
+        <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
       <c r="F6" s="2">
-        <f>C6*10</f>
+        <f t="shared" si="1"/>
         <v>5.26391118835868</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13058823529411764</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.66067555684993251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>198</v>
       </c>
@@ -3716,15 +4110,23 @@
         <v>69.5</v>
       </c>
       <c r="E7" s="2">
-        <f>ABS(D7)</f>
+        <f t="shared" si="0"/>
         <v>69.5</v>
       </c>
       <c r="F7" s="2">
-        <f>C7*10</f>
+        <f t="shared" si="1"/>
         <v>5.581281353706899</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16117647058823528</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.70096174052076832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>204</v>
       </c>
@@ -3738,15 +4140,23 @@
         <v>-170</v>
       </c>
       <c r="E8" s="2">
-        <f>ABS(D8)</f>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
       <c r="F8" s="2">
-        <f>C8*10</f>
+        <f t="shared" si="1"/>
         <v>6.2892402685995599</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.39764705882352941</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.79082829381029429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>213</v>
       </c>
@@ -3760,15 +4170,23 @@
         <v>177.5</v>
       </c>
       <c r="E9" s="2">
-        <f>ABS(D9)</f>
+        <f t="shared" si="0"/>
         <v>177.5</v>
       </c>
       <c r="F9" s="2">
-        <f>C9*10</f>
+        <f t="shared" si="1"/>
         <v>7.0495074808753699</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.41529411764705881</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.88733473296802745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>310</v>
       </c>
@@ -3782,15 +4200,23 @@
         <v>-22.5</v>
       </c>
       <c r="E10" s="2">
-        <f>ABS(D10)</f>
+        <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
       <c r="F10" s="2">
-        <f>C10*10</f>
+        <f t="shared" si="1"/>
         <v>6.27900490490119</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0588235294117649E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.78952904206292884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>360</v>
       </c>
@@ -3804,15 +4230,23 @@
         <v>-152</v>
       </c>
       <c r="E11" s="2">
-        <f>ABS(D11)</f>
+        <f t="shared" si="0"/>
         <v>152</v>
       </c>
       <c r="F11" s="2">
-        <f>C11*10</f>
+        <f t="shared" si="1"/>
         <v>6.3883313146094798</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.35529411764705882</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.80340666605681854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>361</v>
       </c>
@@ -3826,15 +4260,23 @@
         <v>5</v>
       </c>
       <c r="E12" s="2">
-        <f>ABS(D12)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F12" s="2">
-        <f>C12*10</f>
+        <f t="shared" si="1"/>
         <v>7.7032553491732303</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>9.4117647058823521E-3</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.9703198701114889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>376</v>
       </c>
@@ -3848,15 +4290,23 @@
         <v>-22.5</v>
       </c>
       <c r="E13" s="2">
-        <f>ABS(D13)</f>
+        <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
       <c r="F13" s="2">
-        <f>C13*10</f>
+        <f t="shared" si="1"/>
         <v>6.8478237664497899</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0588235294117649E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.86173350118919756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>158</v>
       </c>
@@ -3870,15 +4320,23 @@
         <v>159</v>
       </c>
       <c r="E14" s="3">
-        <f>ABS(D14)</f>
+        <f t="shared" si="0"/>
         <v>159</v>
       </c>
       <c r="F14" s="3">
-        <f>C14*10</f>
+        <f t="shared" si="1"/>
         <v>0.99529817356407801</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.37176470588235294</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11882838055642624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>162</v>
       </c>
@@ -3892,15 +4350,23 @@
         <v>30</v>
       </c>
       <c r="E15" s="3">
-        <f>ABS(D15)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F15" s="3">
-        <f>C15*10</f>
+        <f t="shared" si="1"/>
         <v>5.9181139163642899E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>6.8235294117647061E-2</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>168</v>
       </c>
@@ -3914,15 +4380,23 @@
         <v>71.5</v>
       </c>
       <c r="E16" s="3">
-        <f>ABS(D16)</f>
+        <f t="shared" si="0"/>
         <v>71.5</v>
       </c>
       <c r="F16" s="3">
-        <f>C16*10</f>
+        <f t="shared" si="1"/>
         <v>0.37409167801429605</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16588235294117648</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="3"/>
+        <v>3.9973964767922039E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>182</v>
       </c>
@@ -3936,15 +4410,23 @@
         <v>16</v>
       </c>
       <c r="E17" s="3">
-        <f>ABS(D17)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F17" s="3">
-        <f>C17*10</f>
+        <f t="shared" si="1"/>
         <v>2.6931576440385601</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5294117647058823E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.33435046153008735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>206</v>
       </c>
@@ -3958,15 +4440,23 @@
         <v>67</v>
       </c>
       <c r="E18" s="3">
-        <f>ABS(D18)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="F18" s="3">
-        <f>C18*10</f>
+        <f t="shared" si="1"/>
         <v>1.3277820950285499</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15529411764705883</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="3"/>
+        <v>0.16103306703986112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>208</v>
       </c>
@@ -3980,15 +4470,23 @@
         <v>-1</v>
       </c>
       <c r="E19" s="3">
-        <f>ABS(D19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F19" s="3">
-        <f>C19*10</f>
+        <f t="shared" si="1"/>
         <v>4.0777575619322395</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="G19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="3"/>
+        <v>0.51010814984866892</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>225</v>
       </c>
@@ -4002,15 +4500,23 @@
         <v>32</v>
       </c>
       <c r="E20" s="3">
-        <f>ABS(D20)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="F20" s="3">
-        <f>C20*10</f>
+        <f t="shared" si="1"/>
         <v>1.11856095966901</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="G20" s="3">
+        <f t="shared" si="2"/>
+        <v>7.2941176470588232E-2</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.13447505369393986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>268</v>
       </c>
@@ -4024,15 +4530,23 @@
         <v>14</v>
       </c>
       <c r="E21" s="3">
-        <f>ABS(D21)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F21" s="3">
-        <f>C21*10</f>
+        <f t="shared" si="1"/>
         <v>0.19930853444567903</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="G21" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0588235294117649E-2</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7787424906351875E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>269</v>
       </c>
@@ -4046,19 +4560,23 @@
         <v>109.5</v>
       </c>
       <c r="E22" s="3">
-        <f>ABS(D22)</f>
+        <f t="shared" si="0"/>
         <v>109.5</v>
       </c>
       <c r="F22" s="3">
-        <f>C22*10</f>
+        <f t="shared" si="1"/>
         <v>0.55200155802269801</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="G22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.25529411764705884</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="3"/>
+        <v>6.2557404818157594E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>201</v>
       </c>
@@ -4072,15 +4590,23 @@
         <v>276.5</v>
       </c>
       <c r="E23" s="4">
-        <f>ABS(D23)</f>
+        <f t="shared" si="0"/>
         <v>276.5</v>
       </c>
       <c r="F23" s="4">
-        <f>C23*10</f>
+        <f t="shared" si="1"/>
         <v>0.23137238376953198</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="G23" s="4">
+        <f t="shared" si="2"/>
+        <v>0.64823529411764702</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1857530619147712E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>210</v>
       </c>
@@ -4094,15 +4620,23 @@
         <v>287.5</v>
       </c>
       <c r="E24" s="4">
-        <f>ABS(D24)</f>
+        <f t="shared" si="0"/>
         <v>287.5</v>
       </c>
       <c r="F24" s="4">
-        <f>C24*10</f>
+        <f t="shared" si="1"/>
         <v>1.4612440257319701</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="G24" s="4">
+        <f t="shared" si="2"/>
+        <v>0.67411764705882349</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="3"/>
+        <v>0.17797439436180096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>220</v>
       </c>
@@ -4116,15 +4650,23 @@
         <v>290.5</v>
       </c>
       <c r="E25" s="4">
-        <f>ABS(D25)</f>
+        <f t="shared" si="0"/>
         <v>290.5</v>
       </c>
       <c r="F25" s="4">
-        <f>C25*10</f>
+        <f t="shared" si="1"/>
         <v>2.85467740360752</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="G25" s="4">
+        <f t="shared" si="2"/>
+        <v>0.68117647058823527</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.35485338023804103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>228</v>
       </c>
@@ -4138,15 +4680,23 @@
         <v>275</v>
       </c>
       <c r="E26" s="4">
-        <f>ABS(D26)</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
       <c r="F26" s="4">
-        <f>C26*10</f>
+        <f t="shared" si="1"/>
         <v>1.6504800817979002</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="G26" s="4">
+        <f t="shared" si="2"/>
+        <v>0.64470588235294113</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="3"/>
+        <v>0.20199555118179388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>239</v>
       </c>
@@ -4160,15 +4710,23 @@
         <v>301.5</v>
       </c>
       <c r="E27" s="4">
-        <f>ABS(D27)</f>
+        <f t="shared" si="0"/>
         <v>301.5</v>
       </c>
       <c r="F27" s="4">
-        <f>C27*10</f>
+        <f t="shared" si="1"/>
         <v>0.36415844955368898</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="G27" s="4">
+        <f t="shared" si="2"/>
+        <v>0.70705882352941174</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="3"/>
+        <v>3.8713065320208288E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>242</v>
       </c>
@@ -4182,15 +4740,23 @@
         <v>276</v>
       </c>
       <c r="E28" s="4">
-        <f>ABS(D28)</f>
+        <f t="shared" si="0"/>
         <v>276</v>
       </c>
       <c r="F28" s="4">
-        <f>C28*10</f>
+        <f t="shared" si="1"/>
         <v>2.9986851988803198</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="G28" s="4">
+        <f t="shared" si="2"/>
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="3"/>
+        <v>0.37313337351978731</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>243</v>
       </c>
@@ -4204,15 +4770,23 @@
         <v>279</v>
       </c>
       <c r="E29" s="4">
-        <f>ABS(D29)</f>
+        <f t="shared" si="0"/>
         <v>279</v>
       </c>
       <c r="F29" s="4">
-        <f>C29*10</f>
+        <f t="shared" si="1"/>
         <v>2.2272347238043499</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="G29" s="4">
+        <f t="shared" si="2"/>
+        <v>0.65411764705882358</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="3"/>
+        <v>0.27520735864764456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>246</v>
       </c>
@@ -4226,15 +4800,23 @@
         <v>290</v>
       </c>
       <c r="E30" s="4">
-        <f>ABS(D30)</f>
+        <f t="shared" si="0"/>
         <v>290</v>
       </c>
       <c r="F30" s="4">
-        <f>C30*10</f>
+        <f t="shared" si="1"/>
         <v>0.28422469405932899</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="G30" s="4">
+        <f t="shared" si="2"/>
+        <v>0.68</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="3"/>
+        <v>2.8566472139931774E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>262</v>
       </c>
@@ -4248,15 +4830,23 @@
         <v>297</v>
       </c>
       <c r="E31" s="4">
-        <f>ABS(D31)</f>
+        <f t="shared" si="0"/>
         <v>297</v>
       </c>
       <c r="F31" s="4">
-        <f>C31*10</f>
+        <f t="shared" si="1"/>
         <v>0.84237606129383802</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="G31" s="4">
+        <f t="shared" si="2"/>
+        <v>0.69647058823529406</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9416825927491292E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>283</v>
       </c>
@@ -4270,15 +4860,23 @@
         <v>312</v>
       </c>
       <c r="E32" s="4">
-        <f>ABS(D32)</f>
+        <f t="shared" si="0"/>
         <v>312</v>
       </c>
       <c r="F32" s="4">
-        <f>C32*10</f>
+        <f t="shared" si="1"/>
         <v>0.393693983102053</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="4">
+        <f t="shared" si="2"/>
+        <v>0.73176470588235298</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="3"/>
+        <v>4.2462232883076073E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>289</v>
       </c>
@@ -4292,15 +4890,23 @@
         <v>277</v>
       </c>
       <c r="E33" s="4">
-        <f>ABS(D33)</f>
+        <f t="shared" si="0"/>
         <v>277</v>
       </c>
       <c r="F33" s="4">
-        <f>C33*10</f>
+        <f t="shared" si="1"/>
         <v>2.4493775939102798</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="4">
+        <f t="shared" si="2"/>
+        <v>0.64941176470588236</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="3"/>
+        <v>0.3034056250361532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>320</v>
       </c>
@@ -4314,12 +4920,40 @@
         <v>268.5</v>
       </c>
       <c r="E34" s="4">
-        <f>ABS(D34)</f>
+        <f t="shared" si="0"/>
         <v>268.5</v>
       </c>
       <c r="F34" s="4">
-        <f>C34*10</f>
+        <f t="shared" si="1"/>
         <v>2.4160499634513002</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="2"/>
+        <v>0.62941176470588234</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="3"/>
+        <v>0.29917509807243864</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="E36" s="1">
+        <f>MIN(E1:E34)</f>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f>MIN(F1:F34)</f>
+        <v>5.9181139163642899E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="E37" s="1">
+        <f>MAX(E1:E34)</f>
+        <v>426</v>
+      </c>
+      <c r="F37">
+        <f>MAX(F1:F34)</f>
+        <v>7.9370721784673002</v>
       </c>
     </row>
   </sheetData>
@@ -4339,10 +4973,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="6" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4353,7 +4990,7 @@
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="2">
         <v>145</v>
       </c>
@@ -4374,8 +5011,16 @@
         <f>10*C1</f>
         <v>7.1775262891975604</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2">
+        <f xml:space="preserve"> ( E1 - $E$37 ) / ( $E$38 - $E$37 )</f>
+        <v>0.57249070631970256</v>
+      </c>
+      <c r="H1" s="2">
+        <f xml:space="preserve"> ( F1 - $F$37 ) / ( $F$38 - $F$37 )</f>
+        <v>0.88296888720139988</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>152</v>
       </c>
@@ -4396,8 +5041,16 @@
         <f t="shared" ref="F2:F35" si="1">10*C2</f>
         <v>8.1267662269543699</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G35" si="2" xml:space="preserve"> ( E2 - $E$37 ) / ( $E$38 - $E$37 )</f>
+        <v>0.50929368029739774</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" ref="H2:H34" si="3" xml:space="preserve"> ( F2 - $F$37 ) / ( $F$38 - $F$37 )</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>156</v>
       </c>
@@ -4418,8 +5071,16 @@
         <f t="shared" si="1"/>
         <v>6.8231902069681807</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33680297397769515</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8392830451307467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>171</v>
       </c>
@@ -4440,8 +5101,16 @@
         <f t="shared" si="1"/>
         <v>6.0650439268204899</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7458117326620809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>184</v>
       </c>
@@ -4462,8 +5131,16 @@
         <f t="shared" si="1"/>
         <v>5.7932674984720203</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.72342007434944233</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.71230461125164668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>195</v>
       </c>
@@ -4484,8 +5161,16 @@
         <f t="shared" si="1"/>
         <v>5.6994125429369005</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.28252788104089221</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.700733300931629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>198</v>
       </c>
@@ -4506,8 +5191,16 @@
         <f t="shared" si="1"/>
         <v>5.9875993161637293</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.26319702602230483</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.73626364202144345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>204</v>
       </c>
@@ -4528,8 +5221,16 @@
         <f t="shared" si="1"/>
         <v>6.6304587199020304</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.61933085501858731</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.81552131797882899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>213</v>
       </c>
@@ -4550,8 +5251,16 @@
         <f t="shared" si="1"/>
         <v>7.3208164744046398</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10260223048327137</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.90063503161956515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>310</v>
       </c>
@@ -4572,8 +5281,16 @@
         <f t="shared" si="1"/>
         <v>6.6211645367711105</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.81437544479007973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>360</v>
       </c>
@@ -4594,8 +5311,16 @@
         <f t="shared" si="1"/>
         <v>6.7204379678692607</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.59256505576208174</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.82661479508565083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>361</v>
       </c>
@@ -4616,8 +5341,16 @@
         <f t="shared" si="1"/>
         <v>7.9144497431839103</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.35910780669144982</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.9738236526163645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>376</v>
       </c>
@@ -4638,8 +5371,16 @@
         <f t="shared" si="1"/>
         <v>7.1376783435443105</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.87805606249075985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>158</v>
       </c>
@@ -4660,8 +5401,16 @@
         <f t="shared" si="1"/>
         <v>1.5761255222077001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13011152416356878</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>162</v>
       </c>
@@ -4682,8 +5431,16 @@
         <f t="shared" si="1"/>
         <v>3.9564046557276904E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.32193308550185873</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="3"/>
+        <v>2.9346291141671274E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>168</v>
       </c>
@@ -4704,8 +5461,16 @@
         <f t="shared" si="1"/>
         <v>1.2592305088078202</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.26022304832713755</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15330643464273105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>176</v>
       </c>
@@ -4726,8 +5491,16 @@
         <f t="shared" si="1"/>
         <v>1.97940273281657</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.3315985130111524</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.24209595289831418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>182</v>
       </c>
@@ -4748,8 +5521,16 @@
         <f t="shared" si="1"/>
         <v>1.5259735882273402</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
+        <v>0.34275092936802976</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18619299806479128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>206</v>
       </c>
@@ -4770,8 +5551,16 @@
         <f t="shared" si="1"/>
         <v>0.286149506841892</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="G19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.26691449814126395</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="3"/>
+        <v>3.3335974094720271E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>208</v>
       </c>
@@ -4792,8 +5581,16 @@
         <f t="shared" si="1"/>
         <v>2.7832542847606803</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="G20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.36802973977695169</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.34120223562722601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>225</v>
       </c>
@@ -4814,8 +5611,16 @@
         <f t="shared" si="1"/>
         <v>1.93524301241278</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="G21" s="3">
+        <f t="shared" si="2"/>
+        <v>0.31895910780669146</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="3"/>
+        <v>0.23665153256351085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>268</v>
       </c>
@@ -4836,8 +5641,16 @@
         <f t="shared" si="1"/>
         <v>1.1005193391419101</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="G22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.34572490706319703</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.13373904808347789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="3">
         <v>269</v>
       </c>
@@ -4858,8 +5671,16 @@
         <f t="shared" si="1"/>
         <v>0.48578303844963999</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="G23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2037174721189591</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="3"/>
+        <v>5.7948649380149375E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>201</v>
       </c>
@@ -4880,8 +5701,16 @@
         <f t="shared" si="1"/>
         <v>1.1296347957373101</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="G24" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1895910780669145E-2</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="3"/>
+        <v>0.13732867189666384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>210</v>
       </c>
@@ -4902,12 +5731,16 @@
         <f t="shared" si="1"/>
         <v>1.4765518448020201</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="G25" s="4">
+        <f t="shared" si="2"/>
+        <v>2.8252788104089221E-2</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.18009982667634311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>220</v>
       </c>
@@ -4928,8 +5761,16 @@
         <f t="shared" si="1"/>
         <v>1.6726409924286101</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="G26" s="4">
+        <f t="shared" si="2"/>
+        <v>3.2713754646840149E-2</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="3"/>
+        <v>0.20427551739654135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>228</v>
       </c>
@@ -4950,8 +5791,16 @@
         <f t="shared" si="1"/>
         <v>0.57917418807434906</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="G27" s="4">
+        <f t="shared" si="2"/>
+        <v>9.6654275092936809E-3</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="3"/>
+        <v>6.9462777401299289E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>239</v>
       </c>
@@ -4972,8 +5821,16 @@
         <f t="shared" si="1"/>
         <v>0.75457954511141501</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="G28" s="4">
+        <f t="shared" si="2"/>
+        <v>4.9070631970260223E-2</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="3"/>
+        <v>9.1088378377796292E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>242</v>
       </c>
@@ -4994,8 +5851,16 @@
         <f t="shared" si="1"/>
         <v>1.8034067239637199</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="G29" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1152416356877323E-2</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="3"/>
+        <v>0.22039753088202707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>243</v>
       </c>
@@ -5016,8 +5881,16 @@
         <f t="shared" si="1"/>
         <v>2.1010031892051102</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="G30" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5613382899628252E-2</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="3"/>
+        <v>0.25708798616821482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>246</v>
       </c>
@@ -5038,8 +5911,16 @@
         <f t="shared" si="1"/>
         <v>1.75833522780247E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="G31" s="4">
+        <f t="shared" si="2"/>
+        <v>3.197026022304833E-2</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2464504242050153E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>262</v>
       </c>
@@ -5060,8 +5941,16 @@
         <f t="shared" si="1"/>
         <v>1.6844543644332399</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2379182156133829E-2</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="3"/>
+        <v>0.20573197957919326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>283</v>
       </c>
@@ -5082,8 +5971,16 @@
         <f t="shared" si="1"/>
         <v>1.2770303074903799</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="4">
+        <f t="shared" si="2"/>
+        <v>6.4684014869888479E-2</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="3"/>
+        <v>0.15550095908755557</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>289</v>
       </c>
@@ -5104,8 +6001,16 @@
         <f t="shared" si="1"/>
         <v>1.3046100396201099</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2639405204460967E-2</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="3"/>
+        <v>0.15890124453009299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <v>320</v>
       </c>
@@ -5125,6 +6030,34 @@
       <c r="F35" s="4">
         <f t="shared" si="1"/>
         <v>1.27434701136498</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <f xml:space="preserve"> ( F35 - $F$37 ) / ( $F$38 - $F$37 )</f>
+        <v>0.15517013742800148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="E37" s="1">
+        <f>MIN(E2:E35)</f>
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <f>MIN(F2:F35)</f>
+        <v>1.5761255222077001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="E38" s="1">
+        <f>MAX(E2:E35)</f>
+        <v>683.5</v>
+      </c>
+      <c r="F38">
+        <f>MAX(F2:F35)</f>
+        <v>8.1267662269543699</v>
       </c>
     </row>
   </sheetData>
@@ -5173,11 +6106,11 @@
         <v>-97</v>
       </c>
       <c r="E1" s="2">
-        <f>ABS(D1)</f>
+        <f t="shared" ref="E1:E35" si="0">ABS(D1)</f>
         <v>97</v>
       </c>
       <c r="F1" s="2">
-        <f>10*C1</f>
+        <f t="shared" ref="F1:F35" si="1">10*C1</f>
         <v>7.1299630653262804</v>
       </c>
     </row>
@@ -5195,11 +6128,11 @@
         <v>-54.5</v>
       </c>
       <c r="E2" s="2">
-        <f>ABS(D2)</f>
+        <f t="shared" si="0"/>
         <v>54.5</v>
       </c>
       <c r="F2" s="2">
-        <f>10*C2</f>
+        <f t="shared" si="1"/>
         <v>8.0951992235241601</v>
       </c>
     </row>
@@ -5217,11 +6150,11 @@
         <v>61.5</v>
       </c>
       <c r="E3" s="2">
-        <f>ABS(D3)</f>
+        <f t="shared" si="0"/>
         <v>61.5</v>
       </c>
       <c r="F3" s="2">
-        <f>10*C3</f>
+        <f t="shared" si="1"/>
         <v>6.7696558499238204</v>
       </c>
     </row>
@@ -5239,11 +6172,11 @@
         <v>-384.5</v>
       </c>
       <c r="E4" s="2">
-        <f>ABS(D4)</f>
+        <f t="shared" si="0"/>
         <v>384.5</v>
       </c>
       <c r="F4" s="2">
-        <f>10*C4</f>
+        <f t="shared" si="1"/>
         <v>5.9987335849682495</v>
       </c>
     </row>
@@ -5261,11 +6194,11 @@
         <v>-198.5</v>
       </c>
       <c r="E5" s="2">
-        <f>ABS(D5)</f>
+        <f t="shared" si="0"/>
         <v>198.5</v>
       </c>
       <c r="F5" s="2">
-        <f>10*C5</f>
+        <f t="shared" si="1"/>
         <v>5.7223772864672195</v>
       </c>
     </row>
@@ -5283,11 +6216,11 @@
         <v>98</v>
       </c>
       <c r="E6" s="2">
-        <f>ABS(D6)</f>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="F6" s="2">
-        <f>10*C6</f>
+        <f t="shared" si="1"/>
         <v>5.6269407239026208</v>
       </c>
     </row>
@@ -5305,11 +6238,11 @@
         <v>111</v>
       </c>
       <c r="E7" s="2">
-        <f>ABS(D7)</f>
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="F7" s="2">
-        <f>10*C7</f>
+        <f t="shared" si="1"/>
         <v>5.9199839080002601</v>
       </c>
     </row>
@@ -5327,11 +6260,11 @@
         <v>-128.5</v>
       </c>
       <c r="E8" s="2">
-        <f>ABS(D8)</f>
+        <f t="shared" si="0"/>
         <v>128.5</v>
       </c>
       <c r="F8" s="2">
-        <f>10*C8</f>
+        <f t="shared" si="1"/>
         <v>6.5736765271625899</v>
       </c>
       <c r="I8" t="s">
@@ -5353,11 +6286,11 @@
         <v>219</v>
       </c>
       <c r="E9" s="2">
-        <f>ABS(D9)</f>
+        <f t="shared" si="0"/>
         <v>219</v>
       </c>
       <c r="F9" s="2">
-        <f>10*C9</f>
+        <f t="shared" si="1"/>
         <v>7.2756679207325901</v>
       </c>
       <c r="I9" t="s">
@@ -5379,11 +6312,11 @@
         <v>19</v>
       </c>
       <c r="E10" s="2">
-        <f>ABS(D10)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="F10" s="2">
-        <f>10*C10</f>
+        <f t="shared" si="1"/>
         <v>6.5642257220899705</v>
       </c>
     </row>
@@ -5401,11 +6334,11 @@
         <v>-110.5</v>
       </c>
       <c r="E11" s="2">
-        <f>ABS(D11)</f>
+        <f t="shared" si="0"/>
         <v>110.5</v>
       </c>
       <c r="F11" s="2">
-        <f>10*C11</f>
+        <f t="shared" si="1"/>
         <v>6.6651720702501107</v>
       </c>
     </row>
@@ -5423,11 +6356,11 @@
         <v>46.5</v>
       </c>
       <c r="E12" s="2">
-        <f>ABS(D12)</f>
+        <f t="shared" si="0"/>
         <v>46.5</v>
       </c>
       <c r="F12" s="2">
-        <f>10*C12</f>
+        <f t="shared" si="1"/>
         <v>7.8793048653485194</v>
       </c>
     </row>
@@ -5445,11 +6378,11 @@
         <v>19</v>
       </c>
       <c r="E13" s="2">
-        <f>ABS(D13)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="F13" s="2">
-        <f>10*C13</f>
+        <f t="shared" si="1"/>
         <v>7.0894436176665998</v>
       </c>
     </row>
@@ -5467,11 +6400,11 @@
         <v>200.5</v>
       </c>
       <c r="E14" s="3">
-        <f>ABS(D14)</f>
+        <f t="shared" si="0"/>
         <v>200.5</v>
       </c>
       <c r="F14" s="3">
-        <f>10*C14</f>
+        <f t="shared" si="1"/>
         <v>0.152489233979857</v>
       </c>
     </row>
@@ -5489,11 +6422,11 @@
         <v>71.5</v>
       </c>
       <c r="E15" s="3">
-        <f>ABS(D15)</f>
+        <f t="shared" si="0"/>
         <v>71.5</v>
       </c>
       <c r="F15" s="3">
-        <f>10*C15</f>
+        <f t="shared" si="1"/>
         <v>3.2484992057254101E-2</v>
       </c>
     </row>
@@ -5511,11 +6444,11 @@
         <v>113</v>
       </c>
       <c r="E16" s="3">
-        <f>ABS(D16)</f>
+        <f t="shared" si="0"/>
         <v>113</v>
       </c>
       <c r="F16" s="3">
-        <f>10*C16</f>
+        <f t="shared" si="1"/>
         <v>1.11193447748409</v>
       </c>
     </row>
@@ -5533,11 +6466,11 @@
         <v>65</v>
       </c>
       <c r="E17" s="3">
-        <f>ABS(D17)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="F17" s="3">
-        <f>10*C17</f>
+        <f t="shared" si="1"/>
         <v>2.1812749457779801</v>
       </c>
     </row>
@@ -5555,11 +6488,11 @@
         <v>57.5</v>
       </c>
       <c r="E18" s="3">
-        <f>ABS(D18)</f>
+        <f t="shared" si="0"/>
         <v>57.5</v>
       </c>
       <c r="F18" s="3">
-        <f>10*C18</f>
+        <f t="shared" si="1"/>
         <v>1.72020479045716</v>
       </c>
     </row>
@@ -5577,11 +6510,11 @@
         <v>108.5</v>
       </c>
       <c r="E19" s="3">
-        <f>ABS(D19)</f>
+        <f t="shared" si="0"/>
         <v>108.5</v>
       </c>
       <c r="F19" s="3">
-        <f>10*C19</f>
+        <f t="shared" si="1"/>
         <v>0.45948767821079806</v>
       </c>
     </row>
@@ -5599,11 +6532,11 @@
         <v>40.5</v>
       </c>
       <c r="E20" s="3">
-        <f>ABS(D20)</f>
+        <f t="shared" si="0"/>
         <v>40.5</v>
       </c>
       <c r="F20" s="3">
-        <f>10*C20</f>
+        <f t="shared" si="1"/>
         <v>2.9986726899073601</v>
       </c>
     </row>
@@ -5621,11 +6554,11 @@
         <v>73.5</v>
       </c>
       <c r="E21" s="3">
-        <f>ABS(D21)</f>
+        <f t="shared" si="0"/>
         <v>73.5</v>
       </c>
       <c r="F21" s="3">
-        <f>10*C21</f>
+        <f t="shared" si="1"/>
         <v>1.7993388795948402</v>
       </c>
     </row>
@@ -5643,11 +6576,11 @@
         <v>55.5</v>
       </c>
       <c r="E22" s="3">
-        <f>ABS(D22)</f>
+        <f t="shared" si="0"/>
         <v>55.5</v>
       </c>
       <c r="F22" s="3">
-        <f>10*C22</f>
+        <f t="shared" si="1"/>
         <v>0.95054876921581899</v>
       </c>
     </row>
@@ -5665,11 +6598,11 @@
         <v>151</v>
       </c>
       <c r="E23" s="3">
-        <f>ABS(D23)</f>
+        <f t="shared" si="0"/>
         <v>151</v>
       </c>
       <c r="F23" s="3">
-        <f>10*C23</f>
+        <f t="shared" si="1"/>
         <v>0.76599056625283302</v>
       </c>
     </row>
@@ -5687,11 +6620,11 @@
         <v>318</v>
       </c>
       <c r="E24" s="4">
-        <f>ABS(D24)</f>
+        <f t="shared" si="0"/>
         <v>318</v>
       </c>
       <c r="F24" s="4">
-        <f>10*C24</f>
+        <f t="shared" si="1"/>
         <v>0.980154868106618</v>
       </c>
     </row>
@@ -5709,11 +6642,11 @@
         <v>329</v>
       </c>
       <c r="E25" s="4">
-        <f>ABS(D25)</f>
+        <f t="shared" si="0"/>
         <v>329</v>
       </c>
       <c r="F25" s="4">
-        <f>10*C25</f>
+        <f t="shared" si="1"/>
         <v>1.6546394770197801</v>
       </c>
     </row>
@@ -5731,11 +6664,11 @@
         <v>332</v>
       </c>
       <c r="E26" s="4">
-        <f>ABS(D26)</f>
+        <f t="shared" si="0"/>
         <v>332</v>
       </c>
       <c r="F26" s="4">
-        <f>10*C26</f>
+        <f t="shared" si="1"/>
         <v>1.8693437764322398</v>
       </c>
     </row>
@@ -5753,11 +6686,11 @@
         <v>316.5</v>
       </c>
       <c r="E27" s="4">
-        <f>ABS(D27)</f>
+        <f t="shared" si="0"/>
         <v>316.5</v>
       </c>
       <c r="F27" s="4">
-        <f>10*C27</f>
+        <f t="shared" si="1"/>
         <v>0.75745029684898701</v>
       </c>
     </row>
@@ -5775,11 +6708,11 @@
         <v>343</v>
       </c>
       <c r="E28" s="4">
-        <f>ABS(D28)</f>
+        <f t="shared" si="0"/>
         <v>343</v>
       </c>
       <c r="F28" s="4">
-        <f>10*C28</f>
+        <f t="shared" si="1"/>
         <v>0.59877933297945096</v>
       </c>
     </row>
@@ -5797,11 +6730,11 @@
         <v>317.5</v>
       </c>
       <c r="E29" s="4">
-        <f>ABS(D29)</f>
+        <f t="shared" si="0"/>
         <v>317.5</v>
       </c>
       <c r="F29" s="4">
-        <f>10*C29</f>
+        <f t="shared" si="1"/>
         <v>2.0023131209681999</v>
       </c>
     </row>
@@ -5819,11 +6752,11 @@
         <v>320.5</v>
       </c>
       <c r="E30" s="4">
-        <f>ABS(D30)</f>
+        <f t="shared" si="0"/>
         <v>320.5</v>
       </c>
       <c r="F30" s="4">
-        <f>10*C30</f>
+        <f t="shared" si="1"/>
         <v>2.4032811470625002</v>
       </c>
     </row>
@@ -5841,11 +6774,11 @@
         <v>331.5</v>
       </c>
       <c r="E31" s="4">
-        <f>ABS(D31)</f>
+        <f t="shared" si="0"/>
         <v>331.5</v>
       </c>
       <c r="F31" s="4">
-        <f>10*C31</f>
+        <f t="shared" si="1"/>
         <v>5.12958831357474E-2</v>
       </c>
     </row>
@@ -5863,11 +6796,11 @@
         <v>338.5</v>
       </c>
       <c r="E32" s="4">
-        <f>ABS(D32)</f>
+        <f t="shared" si="0"/>
         <v>338.5</v>
       </c>
       <c r="F32" s="4">
-        <f>10*C32</f>
+        <f t="shared" si="1"/>
         <v>1.54432403933491</v>
       </c>
     </row>
@@ -5885,11 +6818,11 @@
         <v>353.5</v>
       </c>
       <c r="E33" s="4">
-        <f>ABS(D33)</f>
+        <f t="shared" si="0"/>
         <v>353.5</v>
       </c>
       <c r="F33" s="4">
-        <f>10*C33</f>
+        <f t="shared" si="1"/>
         <v>1.1300342314173801</v>
       </c>
     </row>
@@ -5907,11 +6840,11 @@
         <v>318.5</v>
       </c>
       <c r="E34" s="4">
-        <f>ABS(D34)</f>
+        <f t="shared" si="0"/>
         <v>318.5</v>
       </c>
       <c r="F34" s="4">
-        <f>10*C34</f>
+        <f t="shared" si="1"/>
         <v>1.4951109098439899</v>
       </c>
     </row>
@@ -5929,11 +6862,11 @@
         <v>310</v>
       </c>
       <c r="E35" s="4">
-        <f>ABS(D35)</f>
+        <f t="shared" si="0"/>
         <v>310</v>
       </c>
       <c r="F35" s="4">
-        <f>10*C35</f>
+        <f t="shared" si="1"/>
         <v>1.46433790086436</v>
       </c>
     </row>

--- a/other/data_prostor.xlsx
+++ b/other/data_prostor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="300" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="3520" yWindow="80" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tyčinka" sheetId="1" r:id="rId1"/>
@@ -235,6 +235,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8FD66C"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -269,6 +274,20 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>tyčinka!$I$2:$I$14</c:f>
@@ -378,6 +397,20 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8FD66C"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>tyčinka!$I$15:$I$24</c:f>
@@ -469,6 +502,20 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>tyčinka!$I$25:$I$36</c:f>
@@ -656,6 +703,20 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>koláč!$G$1:$G$13</c:f>
@@ -765,6 +826,20 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8FD66C"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>koláč!$G$14:$G$22</c:f>
@@ -850,6 +925,20 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>koláč!$G$23:$G$34</c:f>
@@ -1036,6 +1125,20 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>kolečko!$G$1:$G$13</c:f>
@@ -1145,6 +1248,20 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8FD66C"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>kolečko!$G$14:$G$23</c:f>
@@ -1236,6 +1353,20 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>kolečko!$G$24:$G$35</c:f>
@@ -2655,12 +2786,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="3" tint="0.59999389629810485"/>
+    <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="B2:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3900,12 +4031,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="5" tint="0.39997558519241921"/>
+    <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4974,12 +5105,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="6" tint="-0.249977111117893"/>
+    <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
